--- a/biology/Botanique/Pinguicula_gigantea/Pinguicula_gigantea.xlsx
+++ b/biology/Botanique/Pinguicula_gigantea/Pinguicula_gigantea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pinguicula gigantea est une espèce de plantes herbacées vivaces de la famille des Lentibulariacées appartenant au genre Pinguicula. C'est une plante carnivore. Elle possède sur ses feuilles des très petits poils collant des insectes (moucherons…).
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Amérique centrale.
 </t>
